--- a/GEP/Output_Clusters_Asigned_To_Countries/ward_10_af_df_wind.xlsx
+++ b/GEP/Output_Clusters_Asigned_To_Countries/ward_10_af_df_wind.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,7 +1281,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0004764173415912339</v>
+        <v>0.02572653644592665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.005782575173477255</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02572653644592665</v>
+        <v>0.03239637922820392</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005782575173477255</v>
+        <v>0.001670521716782318</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03239637922820392</v>
+        <v>0.02429728442115294</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001670521716782318</v>
+        <v>0.002698535080956052</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02429728442115294</v>
+        <v>0.04144830871843738</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002698535080956052</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04144830871843738</v>
+        <v>0.05383515959980947</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,32 +1451,32 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.01381692573402418</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.07465947057311723</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05383515959980947</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1485,32 +1485,32 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01381692573402418</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07465947057311723</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.1738923296808005</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.08620689655172414</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1519,14 +1519,14 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.008635578583765112</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1535,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.004883063479825238</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1738923296808005</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3275862068965517</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1553,14 +1553,14 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.008635578583765112</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004883063479825238</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.02953787517865652</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>The former Yugoslav Republic of Macedonia</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02953787517865652</v>
+        <v>0.01429252024773702</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1616,6 +1616,108 @@
       </c>
       <c r="J35" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0006425083526085839</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.09175019275250475</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04764173415912342</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.4545454545454546</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5944055944055944</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9896373056994839</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.6823438704703121</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9799904716531685</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.8181818181818183</v>
       </c>
     </row>
   </sheetData>
